--- a/xlsx/上帝之城_intext.xlsx
+++ b/xlsx/上帝之城_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>上帝之城</t>
   </si>
@@ -29,7 +29,7 @@
     <t>希坡的奥古斯丁</t>
   </si>
   <si>
-    <t>政策_政策_政治學_上帝之城</t>
+    <t>政策_政策_政治学_上帝之城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BE%B7</t>
@@ -77,15 +77,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A0%BB%E6%97%8F</t>
   </si>
   <si>
-    <t>蠻族</t>
+    <t>蛮族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
@@ -95,7 +92,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E7%AF%87</t>
   </si>
   <si>
-    <t>詩篇</t>
+    <t>诗篇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%B6%85%E9%98%BF%E6%96%AF</t>
@@ -113,7 +110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>特洛伊戰爭</t>
+    <t>特洛伊战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E9%98%BF%E6%91%A9%E6%96%AF</t>
@@ -137,19 +134,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%95%A5</t>
   </si>
   <si>
-    <t>馬略</t>
+    <t>马略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%8B%89</t>
   </si>
   <si>
-    <t>蘇拉</t>
+    <t>苏拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B6%AD</t>
   </si>
   <si>
-    <t>李維</t>
+    <t>李维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A5%E6%B6%85%E8%80%B3%E7%93%A6</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>希臘神話</t>
+    <t>希腊神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
@@ -173,31 +170,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E5%8A%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>布倫努斯</t>
+    <t>布伦努斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E7%88%BE%E7%89%B9</t>
   </si>
   <si>
-    <t>賽爾特</t>
+    <t>赛尔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%A7</t>
   </si>
   <si>
-    <t>高盧</t>
+    <t>高卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%9B%A7%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>薩盧斯特</t>
+    <t>萨卢斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%8E%8B%E6%94%BF%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>羅馬王政時代</t>
+    <t>罗马王政时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E7%BA%B3%E6%96%AF</t>
@@ -209,13 +206,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%82%81</t>
   </si>
   <si>
-    <t>庫邁</t>
+    <t>库迈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%85</t>
   </si>
   <si>
-    <t>阿波羅</t>
+    <t>阿波罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%AF%A5%E4%BA%9A</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A5%E8%BF%A6%E6%91%A9</t>
   </si>
   <si>
-    <t>別迦摩</t>
+    <t>别迦摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B%E5%9B%9B%E4%B8%96</t>
   </si>
   <si>
-    <t>安條克四世</t>
+    <t>安条克四世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -251,19 +248,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E7%88%BE%E4%BF%AE%E6%96%AF</t>
   </si>
   <si>
-    <t>珀爾修斯</t>
+    <t>珀尔修斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
   </si>
   <si>
-    <t>馬其頓</t>
+    <t>马其顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E9%A6%AC%E5%85%B6%E9%A0%93%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第三次馬其頓戰爭</t>
+    <t>第三次马其顿战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%9C%9C%E6%8B%89</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%9A%AE%E9%81%94%E9%AD%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>埃皮達魯斯</t>
+    <t>埃皮达鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9E%97%E5%A4%9A</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9E%E7%B4%B0%E4%BA%9E</t>
   </si>
   <si>
-    <t>小亞細亞</t>
+    <t>小亚细亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A5%E8%BE%BE%E6%96%AF</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>瓦羅</t>
+    <t>瓦罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%A9%86%E5%8D%A2%E6%96%AF</t>
@@ -347,19 +344,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%92%92</t>
   </si>
   <si>
-    <t>凱撒</t>
+    <t>凯撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E5%9F%B9</t>
   </si>
   <si>
-    <t>龐培</t>
+    <t>庞培</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B1%E5%88%A9%E4%BA%9E%C2%B7%E5%87%B1%E6%92%92%E9%BA%97%E7%B5%B2</t>
   </si>
   <si>
-    <t>茱利亞·凱撒麗絲</t>
+    <t>茱利亚·凯撒丽丝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E8%80%81%E9%99%A2</t>
@@ -371,19 +368,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9D%8E</t>
   </si>
   <si>
-    <t>盧坎</t>
+    <t>卢坎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A9%A9</t>
   </si>
   <si>
-    <t>史詩</t>
+    <t>史诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%99%E5%88%A9%E4%BA%9A</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>維吉爾</t>
+    <t>维吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E9%87%8C%E5%80%AA%E5%8E%84%E6%96%AF</t>
@@ -443,25 +440,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%9F%A5</t>
   </si>
   <si>
-    <t>預知</t>
+    <t>预知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
   </si>
   <si>
-    <t>蘇格拉底</t>
+    <t>苏格拉底</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E8%B4%96</t>
   </si>
   <si>
-    <t>救贖</t>
+    <t>救赎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF</t>
@@ -473,19 +470,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6</t>
   </si>
   <si>
-    <t>亞當</t>
+    <t>亚当</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E4%BA%9E</t>
   </si>
   <si>
-    <t>挪亞</t>
+    <t>挪亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95</t>
   </si>
   <si>
-    <t>亞伯拉罕</t>
+    <t>亚伯拉罕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%90%8E%E5%AE%A1%E5%88%A4</t>
@@ -515,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84</t>
   </si>
   <si>
-    <t>地獄</t>
+    <t>地狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>復活</t>
+    <t>复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%B9%9F</t>
@@ -1200,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1226,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
@@ -1255,10 +1252,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1284,10 +1281,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1313,10 +1310,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1342,10 +1339,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1371,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1400,10 +1397,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1429,10 +1426,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1458,10 +1455,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1487,10 +1484,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1516,10 +1513,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -1545,10 +1542,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1574,10 +1571,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1603,10 +1600,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1632,10 +1629,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1661,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1690,10 +1687,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1719,10 +1716,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1748,10 +1745,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1777,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1806,10 +1803,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1835,10 +1832,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1864,10 +1861,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1893,10 +1890,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1922,10 +1919,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1951,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1980,10 +1977,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2009,10 +2006,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2038,10 +2035,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2067,10 +2064,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2096,10 +2093,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2125,10 +2122,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2154,10 +2151,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2183,10 +2180,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2212,10 +2209,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2241,10 +2238,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2270,10 +2267,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2299,10 +2296,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2328,10 +2325,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2357,10 +2354,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2386,10 +2383,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2415,10 +2412,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2444,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2473,10 +2470,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>14</v>
@@ -2502,10 +2499,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>11</v>
@@ -2531,10 +2528,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2560,10 +2557,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2589,10 +2586,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2618,10 +2615,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2647,10 +2644,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2676,10 +2673,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2705,10 +2702,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2734,10 +2731,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2763,10 +2760,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2792,10 +2789,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2821,10 +2818,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2850,10 +2847,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2879,10 +2876,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2908,10 +2905,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2937,10 +2934,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2966,10 +2963,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2995,10 +2992,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3024,10 +3021,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3053,10 +3050,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3082,10 +3079,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3111,10 +3108,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3140,10 +3137,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3169,10 +3166,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3198,10 +3195,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3227,10 +3224,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3256,10 +3253,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3285,10 +3282,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3314,10 +3311,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3343,10 +3340,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3372,10 +3369,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3401,10 +3398,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
